--- a/BOM/EG4301 Budget + BOM.xlsx
+++ b/BOM/EG4301 Budget + BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\65833\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\PlatformIO\Projects\Agritech\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8F53F4-9F3B-4268-BADF-09E895E228BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36CC9BA7-09AF-4110-A4B5-2A7D993F84E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="59">
   <si>
     <t>Claimant</t>
   </si>
@@ -720,10 +720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AF66C0-EE55-2146-8168-9FEEE930367D}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -759,7 +759,7 @@
       </c>
       <c r="F2">
         <f>SUM(C:C)</f>
-        <v>2359.4300000000003</v>
+        <v>3319.95</v>
       </c>
       <c r="H2" t="s">
         <v>49</v>
@@ -784,7 +784,7 @@
       </c>
       <c r="F3">
         <f>4000-F2</f>
-        <v>1640.5699999999997</v>
+        <v>680.05000000000018</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -842,15 +842,15 @@
         <v>54.55</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>51</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45231</v>
-      </c>
-      <c r="C10">
-        <v>18.239999999999998</v>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>45330</v>
+      </c>
+      <c r="C9">
+        <v>880.52</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -858,10 +858,10 @@
         <v>51</v>
       </c>
       <c r="B11" s="1">
-        <v>45245</v>
+        <v>45231</v>
       </c>
       <c r="C11">
-        <v>67.13</v>
+        <v>18.239999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -869,20 +869,40 @@
         <v>51</v>
       </c>
       <c r="B12" s="1">
+        <v>45245</v>
+      </c>
+      <c r="C12">
+        <v>67.13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="1">
         <v>45271</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>45.78</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="1">
         <v>45212</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>302.47000000000003</v>
       </c>
     </row>
